--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2323.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2323.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.257956283990155</v>
+        <v>1.468704581260681</v>
       </c>
       <c r="B1">
-        <v>3.409826081581068</v>
+        <v>1.534737229347229</v>
       </c>
       <c r="C1">
-        <v>1.328807460139149</v>
+        <v>1.458185434341431</v>
       </c>
       <c r="D1">
-        <v>0.9350094726274167</v>
+        <v>1.436941146850586</v>
       </c>
       <c r="E1">
-        <v>0.8116987454781706</v>
+        <v>1.028352379798889</v>
       </c>
     </row>
   </sheetData>
